--- a/Dataframes/Combined-Dataframes/PLPSG_PL_surveys_and_sleepstats.xlsx
+++ b/Dataframes/Combined-Dataframes/PLPSG_PL_surveys_and_sleepstats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiereis/repos/PL_Sleep_PSG/DataAnalysis/Data/CombinedDataFrames/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593E198C-7BF0-4842-A777-E28D6672BA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DC0658-CEFE-F842-818C-974D66499E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="21480" windowHeight="16780" xr2:uid="{CEA13705-F5EB-4642-BFA3-A361589E921F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="435">
   <si>
     <t>Wake</t>
   </si>
@@ -794,9 +794,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>perW</t>
-  </si>
-  <si>
     <t>perN1</t>
   </si>
   <si>
@@ -819,9 +816,6 @@
   </si>
   <si>
     <t>latR</t>
-  </si>
-  <si>
-    <t>Inf</t>
   </si>
   <si>
     <t>NaN</t>
@@ -1439,9 +1433,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1479,7 +1473,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1585,7 +1579,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1727,7 +1721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1735,17 +1729,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EA32BA-32E5-D449-9783-69F6E6310710}">
-  <dimension ref="A1:DK60"/>
+  <dimension ref="A1:DJ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CZ1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="CV1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="CA7" sqref="CA7"/>
+      <selection pane="bottomLeft" activeCell="DK16" sqref="DK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:115" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:114" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>155</v>
       </c>
@@ -1969,52 +1963,52 @@
         <v>225</v>
       </c>
       <c r="BW1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="BY1" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="CK1" s="3" t="s">
         <v>229</v>
       </c>
       <c r="CL1" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="CM1" s="3" t="s">
         <v>230</v>
@@ -2088,11 +2082,8 @@
       <c r="DJ1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="DK1" s="2" t="s">
-        <v>260</v>
-      </c>
     </row>
-    <row r="2" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -2316,16 +2307,16 @@
         <v>5</v>
       </c>
       <c r="BW2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BY2">
         <v>25</v>
       </c>
       <c r="BZ2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="CA2">
         <v>1</v>
@@ -2412,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="DC2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG2" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH2" t="s">
         <v>5</v>
@@ -2435,11 +2426,8 @@
       <c r="DJ2" t="s">
         <v>5</v>
       </c>
-      <c r="DK2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>101</v>
       </c>
@@ -2663,28 +2651,28 @@
         <v>5</v>
       </c>
       <c r="BW3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="BY3">
         <v>2.5</v>
       </c>
       <c r="BZ3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA3" s="6">
         <v>45325</v>
       </c>
       <c r="CB3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="CC3">
         <v>7</v>
       </c>
       <c r="CD3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CE3">
         <v>9</v>
@@ -2759,34 +2747,31 @@
         <v>0</v>
       </c>
       <c r="DC3">
-        <v>10.392798690671</v>
+        <v>41.1211129296236</v>
       </c>
       <c r="DD3">
-        <v>41.1211129296236</v>
+        <v>58.8788870703764</v>
       </c>
       <c r="DE3">
-        <v>58.8788870703764</v>
+        <v>0</v>
       </c>
       <c r="DF3">
         <v>0</v>
       </c>
       <c r="DG3">
-        <v>0</v>
+        <v>4.9833333333333298</v>
       </c>
       <c r="DH3">
-        <v>4.9833333333333298</v>
-      </c>
-      <c r="DI3">
         <v>11.983333333333301</v>
       </c>
+      <c r="DI3" t="s">
+        <v>5</v>
+      </c>
       <c r="DJ3" t="s">
         <v>5</v>
       </c>
-      <c r="DK3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>102</v>
       </c>
@@ -3010,28 +2995,28 @@
         <v>5</v>
       </c>
       <c r="BW4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="BX4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BY4">
         <v>2</v>
       </c>
       <c r="BZ4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA4">
         <v>17</v>
       </c>
       <c r="CB4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="CC4">
         <v>4</v>
       </c>
       <c r="CD4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CE4">
         <v>1</v>
@@ -3106,19 +3091,19 @@
         <v>0</v>
       </c>
       <c r="DC4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG4" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH4" t="s">
         <v>5</v>
@@ -3129,11 +3114,8 @@
       <c r="DJ4" t="s">
         <v>5</v>
       </c>
-      <c r="DK4" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="5" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>103</v>
       </c>
@@ -3357,22 +3339,22 @@
         <v>5</v>
       </c>
       <c r="BW5" t="s">
+        <v>284</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>285</v>
+      </c>
+      <c r="BY5">
+        <v>3</v>
+      </c>
+      <c r="BZ5" t="s">
         <v>286</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>287</v>
-      </c>
-      <c r="BY5">
-        <v>3</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>288</v>
       </c>
       <c r="CA5">
         <v>15</v>
       </c>
       <c r="CB5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CC5">
         <v>5</v>
@@ -3453,34 +3435,31 @@
         <v>0</v>
       </c>
       <c r="DC5">
-        <v>20.070113935144601</v>
+        <v>28.2646801051709</v>
       </c>
       <c r="DD5">
-        <v>28.2646801051709</v>
+        <v>44.6976336546889</v>
       </c>
       <c r="DE5">
-        <v>44.6976336546889</v>
+        <v>27.0376862401402</v>
       </c>
       <c r="DF5">
-        <v>27.0376862401402</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0</v>
+        <v>8.2833333333333297</v>
       </c>
       <c r="DH5">
-        <v>8.2833333333333297</v>
+        <v>12.783333333333299</v>
       </c>
       <c r="DI5">
-        <v>12.783333333333299</v>
-      </c>
-      <c r="DJ5">
         <v>20.283333333333299</v>
       </c>
-      <c r="DK5" t="s">
+      <c r="DJ5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>104</v>
       </c>
@@ -3704,34 +3683,34 @@
         <v>5</v>
       </c>
       <c r="BW6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BY6">
         <v>18</v>
       </c>
       <c r="BZ6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="CA6">
         <v>3.75</v>
       </c>
       <c r="CB6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="CC6">
         <v>0.25</v>
       </c>
       <c r="CD6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="CE6">
         <v>0.25</v>
       </c>
       <c r="CF6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CG6">
         <v>1</v>
@@ -3800,19 +3779,19 @@
         <v>0</v>
       </c>
       <c r="DC6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG6" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH6" t="s">
         <v>5</v>
@@ -3823,11 +3802,8 @@
       <c r="DJ6" t="s">
         <v>5</v>
       </c>
-      <c r="DK6" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="7" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>105</v>
       </c>
@@ -4051,22 +4027,22 @@
         <v>5</v>
       </c>
       <c r="BW7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="BY7">
         <v>5</v>
       </c>
       <c r="BZ7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="CA7">
         <v>13</v>
       </c>
       <c r="CB7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CC7">
         <v>3</v>
@@ -4147,34 +4123,31 @@
         <v>17.5</v>
       </c>
       <c r="DC7">
-        <v>33.185185185185198</v>
+        <v>10.3703703703704</v>
       </c>
       <c r="DD7">
-        <v>10.3703703703704</v>
+        <v>50.370370370370402</v>
       </c>
       <c r="DE7">
-        <v>50.370370370370402</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="DF7">
-        <v>13.3333333333333</v>
+        <v>25.925925925925899</v>
       </c>
       <c r="DG7">
-        <v>25.925925925925899</v>
+        <v>15.883333333333301</v>
       </c>
       <c r="DH7">
-        <v>15.883333333333301</v>
+        <v>17.883333333333301</v>
       </c>
       <c r="DI7">
-        <v>17.883333333333301</v>
+        <v>29.883333333333301</v>
       </c>
       <c r="DJ7">
-        <v>29.883333333333301</v>
-      </c>
-      <c r="DK7">
         <v>63.383333333333297</v>
       </c>
     </row>
-    <row r="8" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>106</v>
       </c>
@@ -4398,10 +4371,10 @@
         <v>5</v>
       </c>
       <c r="BW8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BY8">
         <v>21</v>
@@ -4494,19 +4467,19 @@
         <v>0</v>
       </c>
       <c r="DC8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG8" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH8" t="s">
         <v>5</v>
@@ -4517,11 +4490,8 @@
       <c r="DJ8" t="s">
         <v>5</v>
       </c>
-      <c r="DK8" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="9" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>107</v>
       </c>
@@ -4745,22 +4715,22 @@
         <v>5</v>
       </c>
       <c r="BW9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BX9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BY9">
         <v>7</v>
       </c>
       <c r="BZ9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="CA9">
         <v>11</v>
       </c>
       <c r="CB9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC9">
         <v>4</v>
@@ -4841,34 +4811,31 @@
         <v>20.5</v>
       </c>
       <c r="DC9">
-        <v>6.7167127617542501</v>
+        <v>21.9280916633742</v>
       </c>
       <c r="DD9">
-        <v>21.9280916633742</v>
+        <v>36.586329514026097</v>
       </c>
       <c r="DE9">
-        <v>36.586329514026097</v>
+        <v>17.186882655077</v>
       </c>
       <c r="DF9">
-        <v>17.186882655077</v>
+        <v>24.298696167522699</v>
       </c>
       <c r="DG9">
-        <v>24.298696167522699</v>
+        <v>5.18333333333333</v>
       </c>
       <c r="DH9">
-        <v>5.18333333333333</v>
+        <v>38.183333333333302</v>
       </c>
       <c r="DI9">
-        <v>38.183333333333302</v>
+        <v>56.683333333333302</v>
       </c>
       <c r="DJ9">
-        <v>56.683333333333302</v>
-      </c>
-      <c r="DK9">
         <v>14.1833333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>109</v>
       </c>
@@ -5092,16 +5059,16 @@
         <v>5</v>
       </c>
       <c r="BW10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BY10">
         <v>18</v>
       </c>
       <c r="BZ10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA10">
         <v>2</v>
@@ -5188,34 +5155,31 @@
         <v>9.5</v>
       </c>
       <c r="DC10">
-        <v>6.7455621301775199</v>
+        <v>11.2426035502959</v>
       </c>
       <c r="DD10">
+        <v>61.538461538461497</v>
+      </c>
+      <c r="DE10">
+        <v>15.9763313609467</v>
+      </c>
+      <c r="DF10">
         <v>11.2426035502959</v>
       </c>
-      <c r="DE10">
-        <v>61.538461538461497</v>
-      </c>
-      <c r="DF10">
-        <v>15.9763313609467</v>
-      </c>
       <c r="DG10">
-        <v>11.2426035502959</v>
+        <v>0.68333333333333302</v>
       </c>
       <c r="DH10">
-        <v>0.68333333333333302</v>
+        <v>3.18333333333333</v>
       </c>
       <c r="DI10">
-        <v>3.18333333333333</v>
+        <v>22.183333333333302</v>
       </c>
       <c r="DJ10">
-        <v>22.183333333333302</v>
-      </c>
-      <c r="DK10">
         <v>55.683333333333302</v>
       </c>
     </row>
-    <row r="11" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>110</v>
       </c>
@@ -5439,22 +5403,22 @@
         <v>5</v>
       </c>
       <c r="BW11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BX11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BY11">
         <v>17</v>
       </c>
       <c r="BZ11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="CA11">
         <v>3</v>
       </c>
       <c r="CB11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC11">
         <v>1</v>
@@ -5535,34 +5499,31 @@
         <v>22</v>
       </c>
       <c r="DC11">
-        <v>15.8267716535433</v>
+        <v>18.110236220472402</v>
       </c>
       <c r="DD11">
-        <v>18.110236220472402</v>
+        <v>37.007874015748001</v>
       </c>
       <c r="DE11">
-        <v>37.007874015748001</v>
+        <v>10.2362204724409</v>
       </c>
       <c r="DF11">
-        <v>10.2362204724409</v>
+        <v>34.645669291338599</v>
       </c>
       <c r="DG11">
-        <v>34.645669291338599</v>
+        <v>7.8</v>
       </c>
       <c r="DH11">
-        <v>7.8</v>
+        <v>11.8</v>
       </c>
       <c r="DI11">
-        <v>11.8</v>
+        <v>28.8</v>
       </c>
       <c r="DJ11">
-        <v>28.8</v>
-      </c>
-      <c r="DK11">
         <v>42.8</v>
       </c>
     </row>
-    <row r="12" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>111</v>
       </c>
@@ -5786,22 +5747,22 @@
         <v>5</v>
       </c>
       <c r="BW12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="BX12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="BY12">
         <v>16</v>
       </c>
       <c r="BZ12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="CA12">
         <v>2</v>
       </c>
       <c r="CB12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC12">
         <v>2</v>
@@ -5882,19 +5843,19 @@
         <v>0</v>
       </c>
       <c r="DC12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG12" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH12" t="s">
         <v>5</v>
@@ -5905,11 +5866,8 @@
       <c r="DJ12" t="s">
         <v>5</v>
       </c>
-      <c r="DK12" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="13" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>112</v>
       </c>
@@ -6133,40 +6091,40 @@
         <v>5</v>
       </c>
       <c r="BW13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="BY13">
         <v>3</v>
       </c>
       <c r="BZ13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="CA13">
         <v>4</v>
       </c>
       <c r="CB13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="CC13">
         <v>3</v>
       </c>
       <c r="CD13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="CE13">
         <v>2</v>
       </c>
       <c r="CF13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="CG13">
         <v>7</v>
       </c>
       <c r="CH13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CI13">
         <v>6</v>
@@ -6226,34 +6184,31 @@
         <v>0</v>
       </c>
       <c r="DC13">
-        <v>66.604938271604894</v>
+        <v>20.370370370370399</v>
       </c>
       <c r="DD13">
-        <v>20.370370370370399</v>
+        <v>56.481481481481502</v>
       </c>
       <c r="DE13">
-        <v>56.481481481481502</v>
+        <v>23.148148148148099</v>
       </c>
       <c r="DF13">
-        <v>23.148148148148099</v>
+        <v>0</v>
       </c>
       <c r="DG13">
-        <v>0</v>
+        <v>4.6666666666666696</v>
       </c>
       <c r="DH13">
-        <v>4.6666666666666696</v>
+        <v>7.6666666666666696</v>
       </c>
       <c r="DI13">
-        <v>7.6666666666666696</v>
-      </c>
-      <c r="DJ13">
         <v>23.6666666666667</v>
       </c>
-      <c r="DK13" t="s">
+      <c r="DJ13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>113</v>
       </c>
@@ -6477,46 +6432,46 @@
         <v>64</v>
       </c>
       <c r="BW14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BX14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="BY14">
         <v>12</v>
       </c>
       <c r="BZ14" t="s">
+        <v>309</v>
+      </c>
+      <c r="CA14">
+        <v>3</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>310</v>
+      </c>
+      <c r="CC14">
+        <v>2</v>
+      </c>
+      <c r="CD14" t="s">
         <v>311</v>
-      </c>
-      <c r="CA14">
-        <v>3</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>312</v>
-      </c>
-      <c r="CC14">
-        <v>2</v>
-      </c>
-      <c r="CD14" t="s">
-        <v>313</v>
       </c>
       <c r="CE14">
         <v>7</v>
       </c>
       <c r="CF14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="CG14">
         <v>0.16600000000000001</v>
       </c>
       <c r="CH14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="CI14">
         <v>0.41660000000000003</v>
       </c>
       <c r="CJ14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="CK14">
         <v>0.112499999999999</v>
@@ -6573,34 +6528,31 @@
         <v>21</v>
       </c>
       <c r="DC14">
-        <v>3.3722935428243002</v>
+        <v>6.8978731557769697</v>
       </c>
       <c r="DD14">
-        <v>6.8978731557769697</v>
+        <v>48.840774094654201</v>
       </c>
       <c r="DE14">
-        <v>48.840774094654201</v>
+        <v>20.118796704349499</v>
       </c>
       <c r="DF14">
-        <v>20.118796704349499</v>
+        <v>24.142556045219401</v>
       </c>
       <c r="DG14">
-        <v>24.142556045219401</v>
+        <v>1.95</v>
       </c>
       <c r="DH14">
-        <v>1.95</v>
+        <v>4.45</v>
       </c>
       <c r="DI14">
-        <v>4.45</v>
+        <v>56.95</v>
       </c>
       <c r="DJ14">
-        <v>56.95</v>
-      </c>
-      <c r="DK14">
         <v>7.95</v>
       </c>
     </row>
-    <row r="15" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>114</v>
       </c>
@@ -6824,34 +6776,34 @@
         <v>5</v>
       </c>
       <c r="BW15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BX15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="BY15">
         <v>8</v>
       </c>
       <c r="BZ15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="CA15">
         <v>5</v>
       </c>
       <c r="CB15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="CC15">
         <v>2</v>
       </c>
       <c r="CD15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="CE15">
         <v>7</v>
       </c>
       <c r="CF15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CG15">
         <v>8.3299999999999999E-2</v>
@@ -6920,19 +6872,19 @@
         <v>0</v>
       </c>
       <c r="DC15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG15" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH15" t="s">
         <v>5</v>
@@ -6943,11 +6895,8 @@
       <c r="DJ15" t="s">
         <v>5</v>
       </c>
-      <c r="DK15" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="16" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>115</v>
       </c>
@@ -7171,22 +7120,22 @@
         <v>5</v>
       </c>
       <c r="BW16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="BY16">
         <v>17.5</v>
       </c>
       <c r="BZ16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="CA16">
         <v>4</v>
       </c>
       <c r="CB16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC16">
         <v>1.5</v>
@@ -7267,19 +7216,19 @@
         <v>0</v>
       </c>
       <c r="DC16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG16" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH16" t="s">
         <v>5</v>
@@ -7290,11 +7239,8 @@
       <c r="DJ16" t="s">
         <v>5</v>
       </c>
-      <c r="DK16" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="17" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>116</v>
       </c>
@@ -7518,16 +7464,16 @@
         <v>5</v>
       </c>
       <c r="BW17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BY17">
         <v>18</v>
       </c>
       <c r="BZ17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA17">
         <v>4</v>
@@ -7614,19 +7560,19 @@
         <v>0</v>
       </c>
       <c r="DC17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG17" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH17" t="s">
         <v>5</v>
@@ -7637,11 +7583,8 @@
       <c r="DJ17" t="s">
         <v>5</v>
       </c>
-      <c r="DK17" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="18" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>117</v>
       </c>
@@ -7865,28 +7808,28 @@
         <v>5</v>
       </c>
       <c r="BW18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BY18">
         <v>18</v>
       </c>
       <c r="BZ18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="CA18">
         <v>4</v>
       </c>
       <c r="CB18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="CC18">
         <v>2</v>
       </c>
       <c r="CD18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CE18">
         <v>1</v>
@@ -7961,34 +7904,31 @@
         <v>13.866666666666699</v>
       </c>
       <c r="DC18">
-        <v>2.78519648988935</v>
+        <v>21.747424647081299</v>
       </c>
       <c r="DD18">
-        <v>21.747424647081299</v>
+        <v>58.374666157954998</v>
       </c>
       <c r="DE18">
-        <v>58.374666157954998</v>
+        <v>4.0061045402518101</v>
       </c>
       <c r="DF18">
-        <v>4.0061045402518101</v>
+        <v>15.8718046547119</v>
       </c>
       <c r="DG18">
-        <v>15.8718046547119</v>
+        <v>0.45</v>
       </c>
       <c r="DH18">
-        <v>0.45</v>
+        <v>4.45</v>
       </c>
       <c r="DI18">
-        <v>4.45</v>
+        <v>31.95</v>
       </c>
       <c r="DJ18">
-        <v>31.95</v>
-      </c>
-      <c r="DK18">
         <v>75.95</v>
       </c>
     </row>
-    <row r="19" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>118</v>
       </c>
@@ -8212,28 +8152,28 @@
         <v>5</v>
       </c>
       <c r="BW19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BY19">
         <v>6</v>
       </c>
       <c r="BZ19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="CA19">
         <v>1</v>
       </c>
       <c r="CB19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="CC19">
         <v>11</v>
       </c>
       <c r="CD19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CE19">
         <v>1</v>
@@ -8311,31 +8251,28 @@
         <v>7.1428571428571397</v>
       </c>
       <c r="DD19">
-        <v>7.1428571428571397</v>
+        <v>46.428571428571402</v>
       </c>
       <c r="DE19">
-        <v>46.428571428571402</v>
+        <v>13.6904761904762</v>
       </c>
       <c r="DF19">
-        <v>13.6904761904762</v>
+        <v>32.738095238095198</v>
       </c>
       <c r="DG19">
-        <v>32.738095238095198</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="DH19">
-        <v>2.5499999999999998</v>
+        <v>4.05</v>
       </c>
       <c r="DI19">
-        <v>4.05</v>
+        <v>27.55</v>
       </c>
       <c r="DJ19">
-        <v>27.55</v>
-      </c>
-      <c r="DK19">
         <v>58.55</v>
       </c>
     </row>
-    <row r="20" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>119</v>
       </c>
@@ -8559,28 +8496,28 @@
         <v>5</v>
       </c>
       <c r="BW20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BY20">
         <v>18</v>
       </c>
       <c r="BZ20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="CA20">
         <v>4</v>
       </c>
       <c r="CB20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="CC20">
         <v>0.5</v>
       </c>
       <c r="CD20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CE20">
         <v>3</v>
@@ -8655,19 +8592,19 @@
         <v>0</v>
       </c>
       <c r="DC20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG20" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH20" t="s">
         <v>5</v>
@@ -8678,11 +8615,8 @@
       <c r="DJ20" t="s">
         <v>5</v>
       </c>
-      <c r="DK20" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="21" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>120</v>
       </c>
@@ -8906,28 +8840,28 @@
         <v>5</v>
       </c>
       <c r="BW21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BX21" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="BY21">
         <v>15</v>
       </c>
       <c r="BZ21" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="CA21">
         <v>3</v>
       </c>
       <c r="CB21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="CC21">
         <v>7</v>
       </c>
       <c r="CD21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CE21">
         <v>0.5</v>
@@ -9002,34 +8936,31 @@
         <v>6.5</v>
       </c>
       <c r="DC21">
-        <v>12.8930817610063</v>
+        <v>7.5471698113207504</v>
       </c>
       <c r="DD21">
-        <v>7.5471698113207504</v>
+        <v>37.1069182389937</v>
       </c>
       <c r="DE21">
-        <v>37.1069182389937</v>
+        <v>47.169811320754697</v>
       </c>
       <c r="DF21">
-        <v>47.169811320754697</v>
+        <v>8.1761006289308202</v>
       </c>
       <c r="DG21">
-        <v>8.1761006289308202</v>
+        <v>3.18333333333333</v>
       </c>
       <c r="DH21">
-        <v>3.18333333333333</v>
+        <v>4.68333333333333</v>
       </c>
       <c r="DI21">
-        <v>4.68333333333333</v>
+        <v>24.683333333333302</v>
       </c>
       <c r="DJ21">
-        <v>24.683333333333302</v>
-      </c>
-      <c r="DK21">
         <v>73.683333333333294</v>
       </c>
     </row>
-    <row r="22" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>121</v>
       </c>
@@ -9253,28 +9184,28 @@
         <v>5</v>
       </c>
       <c r="BW22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BY22">
         <v>8</v>
       </c>
       <c r="BZ22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="CA22">
         <v>5</v>
       </c>
       <c r="CB22" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="CC22">
         <v>3</v>
       </c>
       <c r="CD22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CE22">
         <v>2</v>
@@ -9349,19 +9280,19 @@
         <v>0</v>
       </c>
       <c r="DC22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF22" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG22" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH22" t="s">
         <v>5</v>
@@ -9372,11 +9303,8 @@
       <c r="DJ22" t="s">
         <v>5</v>
       </c>
-      <c r="DK22" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="23" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>122</v>
       </c>
@@ -9600,22 +9528,22 @@
         <v>5</v>
       </c>
       <c r="BW23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BY23">
         <v>8</v>
       </c>
       <c r="BZ23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="CA23">
         <v>10</v>
       </c>
       <c r="CB23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC23">
         <v>4</v>
@@ -9696,34 +9624,31 @@
         <v>0</v>
       </c>
       <c r="DC23">
-        <v>16.8783638320775</v>
+        <v>4.5209903121636197</v>
       </c>
       <c r="DD23">
-        <v>4.5209903121636197</v>
+        <v>50.914962325080701</v>
       </c>
       <c r="DE23">
-        <v>50.914962325080701</v>
+        <v>44.564047362755701</v>
       </c>
       <c r="DF23">
-        <v>44.564047362755701</v>
+        <v>0</v>
       </c>
       <c r="DG23">
-        <v>0</v>
+        <v>7.5833333333333304</v>
       </c>
       <c r="DH23">
-        <v>7.5833333333333304</v>
+        <v>10.5833333333333</v>
       </c>
       <c r="DI23">
-        <v>10.5833333333333</v>
-      </c>
-      <c r="DJ23">
         <v>27.5833333333333</v>
       </c>
-      <c r="DK23" t="s">
+      <c r="DJ23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>123</v>
       </c>
@@ -9947,28 +9872,28 @@
         <v>5</v>
       </c>
       <c r="BW24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="BY24">
         <v>4</v>
       </c>
       <c r="BZ24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="CA24">
         <v>5</v>
       </c>
       <c r="CB24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="CC24">
         <v>9</v>
       </c>
       <c r="CD24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CE24">
         <v>3</v>
@@ -10043,19 +9968,19 @@
         <v>0</v>
       </c>
       <c r="DC24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG24" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH24" t="s">
         <v>5</v>
@@ -10066,11 +9991,8 @@
       <c r="DJ24" t="s">
         <v>5</v>
       </c>
-      <c r="DK24" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="25" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>125</v>
       </c>
@@ -10294,16 +10216,16 @@
         <v>5</v>
       </c>
       <c r="BW25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BY25">
         <v>18</v>
       </c>
       <c r="BZ25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA25">
         <v>2</v>
@@ -10390,19 +10312,19 @@
         <v>0</v>
       </c>
       <c r="DC25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG25" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH25" t="s">
         <v>5</v>
@@ -10413,11 +10335,8 @@
       <c r="DJ25" t="s">
         <v>5</v>
       </c>
-      <c r="DK25" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="26" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>126</v>
       </c>
@@ -10641,22 +10560,22 @@
         <v>5</v>
       </c>
       <c r="BW26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="BX26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="BY26">
         <v>18</v>
       </c>
       <c r="BZ26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="CA26">
         <v>4</v>
       </c>
       <c r="CB26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC26">
         <v>1</v>
@@ -10737,19 +10656,19 @@
         <v>0</v>
       </c>
       <c r="DC26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG26" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH26" t="s">
         <v>5</v>
@@ -10760,11 +10679,8 @@
       <c r="DJ26" t="s">
         <v>5</v>
       </c>
-      <c r="DK26" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="27" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>127</v>
       </c>
@@ -10988,46 +10904,46 @@
         <v>5</v>
       </c>
       <c r="BW27" t="s">
+        <v>345</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>346</v>
+      </c>
+      <c r="BY27">
+        <v>2</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>330</v>
+      </c>
+      <c r="CA27">
+        <v>2</v>
+      </c>
+      <c r="CB27" t="s">
         <v>347</v>
-      </c>
-      <c r="BX27" t="s">
-        <v>348</v>
-      </c>
-      <c r="BY27">
-        <v>2</v>
-      </c>
-      <c r="BZ27" t="s">
-        <v>332</v>
-      </c>
-      <c r="CA27">
-        <v>2</v>
-      </c>
-      <c r="CB27" t="s">
-        <v>349</v>
       </c>
       <c r="CC27">
         <v>1.5</v>
       </c>
       <c r="CD27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="CE27">
         <v>1</v>
       </c>
       <c r="CF27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="CG27">
         <v>2</v>
       </c>
       <c r="CH27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="CI27">
         <v>5</v>
       </c>
       <c r="CJ27" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="CK27">
         <v>0.249999999999999</v>
@@ -11084,34 +11000,31 @@
         <v>0</v>
       </c>
       <c r="DC27">
-        <v>28.8694003318322</v>
+        <v>22.043138184403901</v>
       </c>
       <c r="DD27">
-        <v>22.043138184403901</v>
+        <v>56.174448921545398</v>
       </c>
       <c r="DE27">
-        <v>56.174448921545398</v>
+        <v>21.782412894050701</v>
       </c>
       <c r="DF27">
-        <v>21.782412894050701</v>
+        <v>0</v>
       </c>
       <c r="DG27">
-        <v>0</v>
+        <v>11.3166666666667</v>
       </c>
       <c r="DH27">
-        <v>11.3166666666667</v>
+        <v>23.316666666666698</v>
       </c>
       <c r="DI27">
-        <v>23.316666666666698</v>
-      </c>
-      <c r="DJ27">
         <v>31.816666666666698</v>
       </c>
-      <c r="DK27" t="s">
+      <c r="DJ27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>128</v>
       </c>
@@ -11335,34 +11248,34 @@
         <v>5</v>
       </c>
       <c r="BW28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BY28">
         <v>4</v>
       </c>
       <c r="BZ28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="CA28">
         <v>1.5</v>
       </c>
       <c r="CB28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="CC28">
         <v>7</v>
       </c>
       <c r="CD28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="CE28">
         <v>6</v>
       </c>
       <c r="CF28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CG28">
         <v>2</v>
@@ -11431,19 +11344,19 @@
         <v>0</v>
       </c>
       <c r="DC28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG28" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH28" t="s">
         <v>5</v>
@@ -11454,11 +11367,8 @@
       <c r="DJ28" t="s">
         <v>5</v>
       </c>
-      <c r="DK28" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="29" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>129</v>
       </c>
@@ -11682,22 +11592,22 @@
         <v>5</v>
       </c>
       <c r="BW29" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BX29" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BY29">
         <v>18</v>
       </c>
       <c r="BZ29" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="CA29">
         <v>4</v>
       </c>
       <c r="CB29" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC29">
         <v>6</v>
@@ -11778,19 +11688,19 @@
         <v>0</v>
       </c>
       <c r="DC29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG29" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH29" t="s">
         <v>5</v>
@@ -11801,11 +11711,8 @@
       <c r="DJ29" t="s">
         <v>5</v>
       </c>
-      <c r="DK29" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="30" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>130</v>
       </c>
@@ -12029,28 +11936,28 @@
         <v>5</v>
       </c>
       <c r="BW30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX30" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="BY30">
         <v>1</v>
       </c>
       <c r="BZ30" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="CA30">
         <v>1</v>
       </c>
       <c r="CB30" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="CC30">
         <v>16</v>
       </c>
       <c r="CD30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CE30">
         <v>3</v>
@@ -12125,34 +12032,31 @@
         <v>0</v>
       </c>
       <c r="DC30">
-        <v>13.2115101869355</v>
+        <v>8.1915563957151907</v>
       </c>
       <c r="DD30">
-        <v>8.1915563957151907</v>
+        <v>47.8890989287965</v>
       </c>
       <c r="DE30">
-        <v>47.8890989287965</v>
+        <v>43.919344675488297</v>
       </c>
       <c r="DF30">
-        <v>43.919344675488297</v>
+        <v>0</v>
       </c>
       <c r="DG30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DH30">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="DI30">
-        <v>6.5</v>
-      </c>
-      <c r="DJ30">
         <v>12</v>
       </c>
-      <c r="DK30" t="s">
+      <c r="DJ30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>131</v>
       </c>
@@ -12376,28 +12280,28 @@
         <v>5</v>
       </c>
       <c r="BW31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="BX31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="BY31">
         <v>17</v>
       </c>
       <c r="BZ31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="CA31">
         <v>3</v>
       </c>
       <c r="CB31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="CC31">
         <v>7</v>
       </c>
       <c r="CD31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="CE31">
         <v>0.25</v>
@@ -12472,34 +12376,31 @@
         <v>0</v>
       </c>
       <c r="DC31">
-        <v>59.941002949852503</v>
+        <v>16.814159292035399</v>
       </c>
       <c r="DD31">
-        <v>16.814159292035399</v>
+        <v>80.530973451327398</v>
       </c>
       <c r="DE31">
-        <v>80.530973451327398</v>
+        <v>2.65486725663717</v>
       </c>
       <c r="DF31">
-        <v>2.65486725663717</v>
+        <v>0</v>
       </c>
       <c r="DG31">
-        <v>0</v>
+        <v>12.983333333333301</v>
       </c>
       <c r="DH31">
-        <v>12.983333333333301</v>
+        <v>13.983333333333301</v>
       </c>
       <c r="DI31">
-        <v>13.983333333333301</v>
-      </c>
-      <c r="DJ31">
         <v>47.483333333333299</v>
       </c>
-      <c r="DK31" t="s">
+      <c r="DJ31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>132</v>
       </c>
@@ -12723,28 +12624,28 @@
         <v>5</v>
       </c>
       <c r="BW32" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BX32" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="BY32">
         <v>18.5</v>
       </c>
       <c r="BZ32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA32">
         <v>1.5</v>
       </c>
       <c r="CB32" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="CC32">
         <v>1.5</v>
       </c>
       <c r="CD32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CE32">
         <v>0.16700000000000001</v>
@@ -12819,34 +12720,31 @@
         <v>4.5</v>
       </c>
       <c r="DC32">
-        <v>15.718849840255601</v>
+        <v>6.38977635782748</v>
       </c>
       <c r="DD32">
-        <v>6.38977635782748</v>
+        <v>48.242811501597402</v>
       </c>
       <c r="DE32">
-        <v>48.242811501597402</v>
+        <v>39.616613418530299</v>
       </c>
       <c r="DF32">
-        <v>39.616613418530299</v>
+        <v>5.7507987220447303</v>
       </c>
       <c r="DG32">
-        <v>5.7507987220447303</v>
+        <v>3.31666666666667</v>
       </c>
       <c r="DH32">
-        <v>3.31666666666667</v>
+        <v>5.31666666666667</v>
       </c>
       <c r="DI32">
-        <v>5.31666666666667</v>
+        <v>32.316666666666698</v>
       </c>
       <c r="DJ32">
-        <v>32.316666666666698</v>
-      </c>
-      <c r="DK32">
         <v>18.816666666666698</v>
       </c>
     </row>
-    <row r="33" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>133</v>
       </c>
@@ -13070,16 +12968,16 @@
         <v>5</v>
       </c>
       <c r="BW33" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BX33" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="BY33">
         <v>18</v>
       </c>
       <c r="BZ33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA33">
         <v>0.25</v>
@@ -13166,19 +13064,19 @@
         <v>0</v>
       </c>
       <c r="DC33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG33" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH33" t="s">
         <v>5</v>
@@ -13189,11 +13087,8 @@
       <c r="DJ33" t="s">
         <v>5</v>
       </c>
-      <c r="DK33" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="34" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>134</v>
       </c>
@@ -13417,34 +13312,34 @@
         <v>5</v>
       </c>
       <c r="BW34" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BX34" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="BY34">
         <v>12</v>
       </c>
       <c r="BZ34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="CA34">
         <v>0.5</v>
       </c>
       <c r="CB34" t="s">
+        <v>366</v>
+      </c>
+      <c r="CC34">
+        <v>6</v>
+      </c>
+      <c r="CD34" t="s">
         <v>368</v>
-      </c>
-      <c r="CC34">
-        <v>6</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>370</v>
       </c>
       <c r="CE34">
         <v>1</v>
       </c>
       <c r="CF34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CG34">
         <v>0.5</v>
@@ -13513,34 +13408,31 @@
         <v>18.116666666666699</v>
       </c>
       <c r="DC34">
-        <v>12.877054295818599</v>
+        <v>6.2408986894112797</v>
       </c>
       <c r="DD34">
-        <v>6.2408986894112797</v>
+        <v>26.211774495527401</v>
       </c>
       <c r="DE34">
-        <v>26.211774495527401</v>
+        <v>44.934470563761202</v>
       </c>
       <c r="DF34">
-        <v>44.934470563761202</v>
+        <v>22.612856251300201</v>
       </c>
       <c r="DG34">
-        <v>22.612856251300201</v>
+        <v>5.3333333333333304</v>
       </c>
       <c r="DH34">
-        <v>5.3333333333333304</v>
+        <v>7.3333333333333304</v>
       </c>
       <c r="DI34">
-        <v>7.3333333333333304</v>
+        <v>20.3333333333333</v>
       </c>
       <c r="DJ34">
-        <v>20.3333333333333</v>
-      </c>
-      <c r="DK34">
         <v>72.3333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>135</v>
       </c>
@@ -13764,40 +13656,40 @@
         <v>5</v>
       </c>
       <c r="BW35" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BX35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="BY35">
         <v>18</v>
       </c>
       <c r="BZ35" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="CA35">
         <v>0.58333333300000001</v>
       </c>
       <c r="CB35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="CC35">
         <v>0.33</v>
       </c>
       <c r="CD35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CE35">
         <v>2.5</v>
       </c>
       <c r="CF35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="CG35">
         <v>0.41660000000000003</v>
       </c>
       <c r="CH35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CI35">
         <v>0.16600000000000001</v>
@@ -13857,34 +13749,31 @@
         <v>2.5</v>
       </c>
       <c r="DC35">
-        <v>43.4432823813355</v>
+        <v>8.0450522928399</v>
       </c>
       <c r="DD35">
-        <v>8.0450522928399</v>
+        <v>71.037811745776395</v>
       </c>
       <c r="DE35">
-        <v>71.037811745776395</v>
+        <v>16.8946098149638</v>
       </c>
       <c r="DF35">
-        <v>16.8946098149638</v>
+        <v>4.02252614641995</v>
       </c>
       <c r="DG35">
-        <v>4.02252614641995</v>
+        <v>25.516666666666701</v>
       </c>
       <c r="DH35">
-        <v>25.516666666666701</v>
+        <v>26.016666666666701</v>
       </c>
       <c r="DI35">
-        <v>26.016666666666701</v>
+        <v>45.016666666666701</v>
       </c>
       <c r="DJ35">
-        <v>45.016666666666701</v>
-      </c>
-      <c r="DK35">
         <v>65.016666666666694</v>
       </c>
     </row>
-    <row r="36" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>136</v>
       </c>
@@ -14108,28 +13997,28 @@
         <v>5</v>
       </c>
       <c r="BW36" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BX36" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="BY36">
         <v>2</v>
       </c>
       <c r="BZ36" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="CA36">
         <v>7</v>
       </c>
       <c r="CB36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="CC36">
         <v>9</v>
       </c>
       <c r="CD36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CE36">
         <v>3</v>
@@ -14204,34 +14093,31 @@
         <v>24</v>
       </c>
       <c r="DC36">
-        <v>5.8041821379714698</v>
+        <v>6.1950361539964804</v>
       </c>
       <c r="DD36">
-        <v>6.1950361539964804</v>
+        <v>38.694547586476503</v>
       </c>
       <c r="DE36">
-        <v>38.694547586476503</v>
+        <v>26.968927105725999</v>
       </c>
       <c r="DF36">
-        <v>26.968927105725999</v>
+        <v>28.1414891538011</v>
       </c>
       <c r="DG36">
-        <v>28.1414891538011</v>
+        <v>4.4666666666666703</v>
       </c>
       <c r="DH36">
-        <v>4.4666666666666703</v>
+        <v>7.4666666666666703</v>
       </c>
       <c r="DI36">
-        <v>7.4666666666666703</v>
+        <v>20.966666666666701</v>
       </c>
       <c r="DJ36">
-        <v>20.966666666666701</v>
-      </c>
-      <c r="DK36">
         <v>59.466666666666697</v>
       </c>
     </row>
-    <row r="37" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>137</v>
       </c>
@@ -14455,16 +14341,16 @@
         <v>5</v>
       </c>
       <c r="BW37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BX37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="BY37">
         <v>18</v>
       </c>
       <c r="BZ37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA37">
         <v>2</v>
@@ -14551,34 +14437,31 @@
         <v>0</v>
       </c>
       <c r="DC37">
-        <v>9.1621458710066292</v>
+        <v>9.0415913200723299</v>
       </c>
       <c r="DD37">
-        <v>9.0415913200723299</v>
+        <v>36.106088004822197</v>
       </c>
       <c r="DE37">
-        <v>36.106088004822197</v>
+        <v>54.852320675105503</v>
       </c>
       <c r="DF37">
-        <v>54.852320675105503</v>
+        <v>0</v>
       </c>
       <c r="DG37">
-        <v>0</v>
+        <v>6.1166666666666698</v>
       </c>
       <c r="DH37">
-        <v>6.1166666666666698</v>
+        <v>8.6166666666666707</v>
       </c>
       <c r="DI37">
-        <v>8.6166666666666707</v>
-      </c>
-      <c r="DJ37">
         <v>20.116666666666699</v>
       </c>
-      <c r="DK37" t="s">
+      <c r="DJ37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>138</v>
       </c>
@@ -14802,22 +14685,22 @@
         <v>5</v>
       </c>
       <c r="BW38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="BX38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BY38">
         <v>18</v>
       </c>
       <c r="BZ38" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="CA38">
         <v>2</v>
       </c>
       <c r="CB38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC38">
         <v>0.16600000000000001</v>
@@ -14898,34 +14781,31 @@
         <v>14.5</v>
       </c>
       <c r="DC38">
-        <v>4.4919992288413297</v>
+        <v>5.78368999421631</v>
       </c>
       <c r="DD38">
-        <v>5.78368999421631</v>
+        <v>58.357432041642603</v>
       </c>
       <c r="DE38">
-        <v>58.357432041642603</v>
+        <v>19.086176980913802</v>
       </c>
       <c r="DF38">
-        <v>19.086176980913802</v>
+        <v>16.772700983227299</v>
       </c>
       <c r="DG38">
-        <v>16.772700983227299</v>
+        <v>2.9</v>
       </c>
       <c r="DH38">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
       <c r="DI38">
-        <v>5.4</v>
+        <v>24.9</v>
       </c>
       <c r="DJ38">
-        <v>24.9</v>
-      </c>
-      <c r="DK38">
         <v>61.4</v>
       </c>
     </row>
-    <row r="39" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>139</v>
       </c>
@@ -15149,22 +15029,22 @@
         <v>5</v>
       </c>
       <c r="BW39" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BX39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="BY39">
         <v>14</v>
       </c>
       <c r="BZ39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="CA39">
         <v>6</v>
       </c>
       <c r="CB39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="CC39">
         <v>2</v>
@@ -15245,34 +15125,31 @@
         <v>24</v>
       </c>
       <c r="DC39">
-        <v>15.0315789473684</v>
+        <v>7.5789473684210504</v>
       </c>
       <c r="DD39">
-        <v>7.5789473684210504</v>
+        <v>27.157894736842099</v>
       </c>
       <c r="DE39">
-        <v>27.157894736842099</v>
+        <v>34.947368421052602</v>
       </c>
       <c r="DF39">
-        <v>34.947368421052602</v>
+        <v>30.315789473684202</v>
       </c>
       <c r="DG39">
-        <v>30.315789473684202</v>
+        <v>6.4166666666666696</v>
       </c>
       <c r="DH39">
-        <v>6.4166666666666696</v>
+        <v>7.9166666666666696</v>
       </c>
       <c r="DI39">
-        <v>7.9166666666666696</v>
+        <v>13.9166666666667</v>
       </c>
       <c r="DJ39">
-        <v>13.9166666666667</v>
-      </c>
-      <c r="DK39">
         <v>48.9166666666667</v>
       </c>
     </row>
-    <row r="40" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>140</v>
       </c>
@@ -15496,22 +15373,22 @@
         <v>5</v>
       </c>
       <c r="BW40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BX40" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="BY40">
         <v>6</v>
       </c>
       <c r="BZ40" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="CA40">
         <v>12</v>
       </c>
       <c r="CB40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC40">
         <v>4</v>
@@ -15592,34 +15469,31 @@
         <v>0</v>
       </c>
       <c r="DC40">
-        <v>134.63203463203499</v>
+        <v>15.5844155844156</v>
       </c>
       <c r="DD40">
-        <v>15.5844155844156</v>
+        <v>51.948051948051898</v>
       </c>
       <c r="DE40">
-        <v>51.948051948051898</v>
+        <v>32.4675324675325</v>
       </c>
       <c r="DF40">
-        <v>32.4675324675325</v>
+        <v>0</v>
       </c>
       <c r="DG40">
-        <v>0</v>
+        <v>30.933333333333302</v>
       </c>
       <c r="DH40">
-        <v>30.933333333333302</v>
+        <v>35.933333333333302</v>
       </c>
       <c r="DI40">
-        <v>35.933333333333302</v>
-      </c>
-      <c r="DJ40">
         <v>53.433333333333302</v>
       </c>
-      <c r="DK40" t="s">
+      <c r="DJ40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>141</v>
       </c>
@@ -15843,16 +15717,16 @@
         <v>5</v>
       </c>
       <c r="BW41" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BX41" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="BY41">
         <v>18</v>
       </c>
       <c r="BZ41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA41">
         <v>2</v>
@@ -15939,34 +15813,31 @@
         <v>7.5</v>
       </c>
       <c r="DC41">
-        <v>12.5833333333333</v>
+        <v>13.75</v>
       </c>
       <c r="DD41">
-        <v>13.75</v>
+        <v>46.875</v>
       </c>
       <c r="DE41">
-        <v>46.875</v>
+        <v>30</v>
       </c>
       <c r="DF41">
-        <v>30</v>
+        <v>9.375</v>
       </c>
       <c r="DG41">
-        <v>9.375</v>
+        <v>7.0833333333333304</v>
       </c>
       <c r="DH41">
-        <v>7.0833333333333304</v>
+        <v>9.5833333333333304</v>
       </c>
       <c r="DI41">
-        <v>9.5833333333333304</v>
+        <v>33.0833333333333</v>
       </c>
       <c r="DJ41">
-        <v>33.0833333333333</v>
-      </c>
-      <c r="DK41">
         <v>56.5833333333333</v>
       </c>
     </row>
-    <row r="42" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>142</v>
       </c>
@@ -16190,22 +16061,22 @@
         <v>5</v>
       </c>
       <c r="BW42" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BX42" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BY42">
         <v>18</v>
       </c>
       <c r="BZ42" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="CA42">
         <v>4</v>
       </c>
       <c r="CB42" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC42">
         <v>3</v>
@@ -16286,34 +16157,31 @@
         <v>6</v>
       </c>
       <c r="DC42">
-        <v>8.6562242374278604</v>
+        <v>10.964550700742</v>
       </c>
       <c r="DD42">
-        <v>10.964550700742</v>
+        <v>56.265457543281101</v>
       </c>
       <c r="DE42">
-        <v>56.265457543281101</v>
+        <v>25.350370981038701</v>
       </c>
       <c r="DF42">
-        <v>25.350370981038701</v>
+        <v>7.4196207749381697</v>
       </c>
       <c r="DG42">
-        <v>7.4196207749381697</v>
+        <v>1.6666666666666701E-2</v>
       </c>
       <c r="DH42">
-        <v>1.6666666666666701E-2</v>
+        <v>4.3833333333333302</v>
       </c>
       <c r="DI42">
-        <v>4.3833333333333302</v>
+        <v>19.883333333333301</v>
       </c>
       <c r="DJ42">
-        <v>19.883333333333301</v>
-      </c>
-      <c r="DK42">
         <v>76.883333333333297</v>
       </c>
     </row>
-    <row r="43" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>143</v>
       </c>
@@ -16537,22 +16405,22 @@
         <v>5</v>
       </c>
       <c r="BW43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BX43" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="BY43">
         <v>2</v>
       </c>
       <c r="BZ43" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="CA43">
         <v>16</v>
       </c>
       <c r="CB43" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CC43">
         <v>2</v>
@@ -16633,34 +16501,31 @@
         <v>21.766666666666701</v>
       </c>
       <c r="DC43">
-        <v>8.6350974930362092</v>
+        <v>11.3410266613609</v>
       </c>
       <c r="DD43">
-        <v>11.3410266613609</v>
+        <v>53.7206526064465</v>
       </c>
       <c r="DE43">
-        <v>53.7206526064465</v>
+        <v>8.9534421010744101</v>
       </c>
       <c r="DF43">
-        <v>8.9534421010744101</v>
+        <v>25.9848786311182</v>
       </c>
       <c r="DG43">
-        <v>25.9848786311182</v>
+        <v>4.25</v>
       </c>
       <c r="DH43">
-        <v>4.25</v>
+        <v>7.25</v>
       </c>
       <c r="DI43">
-        <v>7.25</v>
+        <v>44.75</v>
       </c>
       <c r="DJ43">
-        <v>44.75</v>
-      </c>
-      <c r="DK43">
         <v>68.75</v>
       </c>
     </row>
-    <row r="44" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>144</v>
       </c>
@@ -16884,25 +16749,25 @@
         <v>5</v>
       </c>
       <c r="BW44" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="BX44" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="BY44">
         <v>17</v>
       </c>
       <c r="BZ44" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="CA44">
         <v>2</v>
       </c>
       <c r="CB44" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CC44" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="CD44" t="s">
         <v>5</v>
@@ -16980,34 +16845,31 @@
         <v>0</v>
       </c>
       <c r="DC44">
-        <v>13.1144238517325</v>
+        <v>29.290894439967801</v>
       </c>
       <c r="DD44">
-        <v>29.290894439967801</v>
+        <v>24.7784045124899</v>
       </c>
       <c r="DE44">
-        <v>24.7784045124899</v>
+        <v>45.9307010475423</v>
       </c>
       <c r="DF44">
-        <v>45.9307010475423</v>
+        <v>0</v>
       </c>
       <c r="DG44">
-        <v>0</v>
+        <v>6.3666666666666698</v>
       </c>
       <c r="DH44">
-        <v>6.3666666666666698</v>
+        <v>15.866666666666699</v>
       </c>
       <c r="DI44">
-        <v>15.866666666666699</v>
-      </c>
-      <c r="DJ44">
         <v>33.866666666666703</v>
       </c>
-      <c r="DK44" t="s">
+      <c r="DJ44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>145</v>
       </c>
@@ -17231,34 +17093,34 @@
         <v>5</v>
       </c>
       <c r="BW45" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BX45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="BY45">
         <v>3</v>
       </c>
       <c r="BZ45" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="CA45">
         <v>3</v>
       </c>
       <c r="CB45" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="CC45">
         <v>8</v>
       </c>
       <c r="CD45" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="CE45">
         <v>4</v>
       </c>
       <c r="CF45" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CG45">
         <v>4</v>
@@ -17327,34 +17189,31 @@
         <v>18.3333333333333</v>
       </c>
       <c r="DC45">
-        <v>15.594262295082</v>
+        <v>22.131147540983601</v>
       </c>
       <c r="DD45">
-        <v>22.131147540983601</v>
+        <v>51.024590163934398</v>
       </c>
       <c r="DE45">
-        <v>51.024590163934398</v>
+        <v>4.3032786885245899</v>
       </c>
       <c r="DF45">
-        <v>4.3032786885245899</v>
+        <v>22.540983606557401</v>
       </c>
       <c r="DG45">
-        <v>22.540983606557401</v>
+        <v>12.2</v>
       </c>
       <c r="DH45">
-        <v>12.2</v>
+        <v>22.7</v>
       </c>
       <c r="DI45">
-        <v>22.7</v>
+        <v>41.7</v>
       </c>
       <c r="DJ45">
-        <v>41.7</v>
-      </c>
-      <c r="DK45">
         <v>75.7</v>
       </c>
     </row>
-    <row r="46" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>146</v>
       </c>
@@ -17578,10 +17437,10 @@
         <v>5</v>
       </c>
       <c r="BW46" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BX46" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="BY46">
         <v>30</v>
@@ -17674,34 +17533,31 @@
         <v>19.5</v>
       </c>
       <c r="DC46">
-        <v>25.710853023628299</v>
+        <v>24.028834601521801</v>
       </c>
       <c r="DD46">
-        <v>24.028834601521801</v>
+        <v>52.543051661994397</v>
       </c>
       <c r="DE46">
-        <v>52.543051661994397</v>
+        <v>0</v>
       </c>
       <c r="DF46">
-        <v>0</v>
+        <v>23.428113736483802</v>
       </c>
       <c r="DG46">
-        <v>23.428113736483802</v>
+        <v>7.4166666666666696</v>
       </c>
       <c r="DH46">
-        <v>7.4166666666666696</v>
-      </c>
-      <c r="DI46">
         <v>15.9166666666667</v>
       </c>
-      <c r="DJ46" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK46">
+      <c r="DI46" t="s">
+        <v>5</v>
+      </c>
+      <c r="DJ46">
         <v>80.4166666666667</v>
       </c>
     </row>
-    <row r="47" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>147</v>
       </c>
@@ -17925,22 +17781,22 @@
         <v>5</v>
       </c>
       <c r="BW47" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BX47" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="BY47">
         <v>8</v>
       </c>
       <c r="BZ47" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="CA47">
         <v>9.5</v>
       </c>
       <c r="CB47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC47">
         <v>4.5</v>
@@ -18021,34 +17877,31 @@
         <v>32.5</v>
       </c>
       <c r="DC47">
-        <v>3.9181286549707601</v>
+        <v>7.60233918128655</v>
       </c>
       <c r="DD47">
-        <v>7.60233918128655</v>
+        <v>41.520467836257303</v>
       </c>
       <c r="DE47">
-        <v>41.520467836257303</v>
+        <v>12.8654970760234</v>
       </c>
       <c r="DF47">
-        <v>12.8654970760234</v>
+        <v>38.011695906432699</v>
       </c>
       <c r="DG47">
-        <v>38.011695906432699</v>
+        <v>2.8666666666666698</v>
       </c>
       <c r="DH47">
-        <v>2.8666666666666698</v>
+        <v>5.8666666666666698</v>
       </c>
       <c r="DI47">
-        <v>5.8666666666666698</v>
+        <v>24.866666666666699</v>
       </c>
       <c r="DJ47">
-        <v>24.866666666666699</v>
-      </c>
-      <c r="DK47">
         <v>47.366666666666703</v>
       </c>
     </row>
-    <row r="48" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>148</v>
       </c>
@@ -18272,28 +18125,28 @@
         <v>5</v>
       </c>
       <c r="BW48" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BX48" t="s">
+        <v>402</v>
+      </c>
+      <c r="BY48">
+        <v>5</v>
+      </c>
+      <c r="BZ48" t="s">
+        <v>403</v>
+      </c>
+      <c r="CA48">
+        <v>6</v>
+      </c>
+      <c r="CB48" t="s">
         <v>404</v>
-      </c>
-      <c r="BY48">
-        <v>5</v>
-      </c>
-      <c r="BZ48" t="s">
-        <v>405</v>
-      </c>
-      <c r="CA48">
-        <v>6</v>
-      </c>
-      <c r="CB48" t="s">
-        <v>406</v>
       </c>
       <c r="CC48">
         <v>8</v>
       </c>
       <c r="CD48" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CE48">
         <v>2.5</v>
@@ -18368,34 +18221,31 @@
         <v>24</v>
       </c>
       <c r="DC48">
-        <v>2.4293785310734499</v>
+        <v>6.2146892655367196</v>
       </c>
       <c r="DD48">
-        <v>6.2146892655367196</v>
+        <v>56.497175141242899</v>
       </c>
       <c r="DE48">
-        <v>56.497175141242899</v>
+        <v>10.1694915254237</v>
       </c>
       <c r="DF48">
-        <v>10.1694915254237</v>
+        <v>27.118644067796598</v>
       </c>
       <c r="DG48">
-        <v>27.118644067796598</v>
+        <v>0.61666666666666703</v>
       </c>
       <c r="DH48">
-        <v>0.61666666666666703</v>
+        <v>2.6166666666666698</v>
       </c>
       <c r="DI48">
-        <v>2.6166666666666698</v>
+        <v>31.616666666666699</v>
       </c>
       <c r="DJ48">
-        <v>31.616666666666699</v>
-      </c>
-      <c r="DK48">
         <v>66.616666666666703</v>
       </c>
     </row>
-    <row r="49" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>149</v>
       </c>
@@ -18619,16 +18469,16 @@
         <v>5</v>
       </c>
       <c r="BW49" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BX49" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="BY49">
         <v>19</v>
       </c>
       <c r="BZ49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA49">
         <v>2</v>
@@ -18715,34 +18565,31 @@
         <v>0</v>
       </c>
       <c r="DC49">
-        <v>78.112676056338003</v>
+        <v>29.577464788732399</v>
       </c>
       <c r="DD49">
-        <v>29.577464788732399</v>
+        <v>69.295774647887299</v>
       </c>
       <c r="DE49">
-        <v>69.295774647887299</v>
+        <v>1.12676056338028</v>
       </c>
       <c r="DF49">
-        <v>1.12676056338028</v>
+        <v>0</v>
       </c>
       <c r="DG49">
-        <v>0</v>
+        <v>3.7333333333333298</v>
       </c>
       <c r="DH49">
-        <v>3.7333333333333298</v>
+        <v>14.233333333333301</v>
       </c>
       <c r="DI49">
-        <v>14.233333333333301</v>
-      </c>
-      <c r="DJ49">
         <v>34.233333333333299</v>
       </c>
-      <c r="DK49" t="s">
+      <c r="DJ49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>150</v>
       </c>
@@ -18966,28 +18813,28 @@
         <v>5</v>
       </c>
       <c r="BW50" t="s">
+        <v>405</v>
+      </c>
+      <c r="BX50" t="s">
         <v>407</v>
       </c>
-      <c r="BX50" t="s">
+      <c r="BY50">
+        <v>3</v>
+      </c>
+      <c r="BZ50" t="s">
+        <v>408</v>
+      </c>
+      <c r="CA50">
+        <v>3</v>
+      </c>
+      <c r="CB50" t="s">
         <v>409</v>
-      </c>
-      <c r="BY50">
-        <v>3</v>
-      </c>
-      <c r="BZ50" t="s">
-        <v>410</v>
-      </c>
-      <c r="CA50">
-        <v>3</v>
-      </c>
-      <c r="CB50" t="s">
-        <v>411</v>
       </c>
       <c r="CC50">
         <v>12</v>
       </c>
       <c r="CD50" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CE50">
         <v>3</v>
@@ -19062,19 +18909,19 @@
         <v>0</v>
       </c>
       <c r="DC50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG50" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH50" t="s">
         <v>5</v>
@@ -19085,11 +18932,8 @@
       <c r="DJ50" t="s">
         <v>5</v>
       </c>
-      <c r="DK50" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="51" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>151</v>
       </c>
@@ -19313,28 +19157,28 @@
         <v>5</v>
       </c>
       <c r="BW51" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BX51" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="BY51">
         <v>3</v>
       </c>
       <c r="BZ51" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA51">
         <v>8</v>
       </c>
       <c r="CB51" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="CC51">
         <v>6</v>
       </c>
       <c r="CD51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CE51">
         <v>2</v>
@@ -19409,19 +19253,19 @@
         <v>0</v>
       </c>
       <c r="DC51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG51" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH51" t="s">
         <v>5</v>
@@ -19432,11 +19276,8 @@
       <c r="DJ51" t="s">
         <v>5</v>
       </c>
-      <c r="DK51" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="52" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>152</v>
       </c>
@@ -19660,28 +19501,28 @@
         <v>5</v>
       </c>
       <c r="BW52" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BX52" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="BY52">
         <v>6</v>
       </c>
       <c r="BZ52" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="CA52">
         <v>11</v>
       </c>
       <c r="CB52" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC52">
         <v>4</v>
       </c>
       <c r="CD52" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="CE52">
         <v>1</v>
@@ -19756,19 +19597,19 @@
         <v>0</v>
       </c>
       <c r="DC52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF52" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG52" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH52" t="s">
         <v>5</v>
@@ -19779,11 +19620,8 @@
       <c r="DJ52" t="s">
         <v>5</v>
       </c>
-      <c r="DK52" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="53" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>153</v>
       </c>
@@ -20007,34 +19845,34 @@
         <v>5</v>
       </c>
       <c r="BW53" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BX53" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BY53">
         <v>2</v>
       </c>
       <c r="BZ53" t="s">
+        <v>415</v>
+      </c>
+      <c r="CA53">
+        <v>3</v>
+      </c>
+      <c r="CB53" t="s">
+        <v>416</v>
+      </c>
+      <c r="CC53">
+        <v>2</v>
+      </c>
+      <c r="CD53" t="s">
         <v>417</v>
-      </c>
-      <c r="CA53">
-        <v>3</v>
-      </c>
-      <c r="CB53" t="s">
-        <v>418</v>
-      </c>
-      <c r="CC53">
-        <v>2</v>
-      </c>
-      <c r="CD53" t="s">
-        <v>419</v>
       </c>
       <c r="CE53">
         <v>18</v>
       </c>
       <c r="CF53" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CG53">
         <v>1</v>
@@ -20103,19 +19941,19 @@
         <v>0</v>
       </c>
       <c r="DC53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG53" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH53" t="s">
         <v>5</v>
@@ -20126,11 +19964,8 @@
       <c r="DJ53" t="s">
         <v>5</v>
       </c>
-      <c r="DK53" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="54" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>154</v>
       </c>
@@ -20354,16 +20189,16 @@
         <v>5</v>
       </c>
       <c r="BW54" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BX54" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BY54">
         <v>18</v>
       </c>
       <c r="BZ54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA54">
         <v>5</v>
@@ -20450,19 +20285,19 @@
         <v>0</v>
       </c>
       <c r="DC54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG54" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH54" t="s">
         <v>5</v>
@@ -20473,11 +20308,8 @@
       <c r="DJ54" t="s">
         <v>5</v>
       </c>
-      <c r="DK54" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="55" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>155</v>
       </c>
@@ -20701,16 +20533,16 @@
         <v>5</v>
       </c>
       <c r="BW55" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BX55" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="BY55">
         <v>18</v>
       </c>
       <c r="BZ55" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA55">
         <v>3</v>
@@ -20797,19 +20629,19 @@
         <v>0</v>
       </c>
       <c r="DC55" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG55" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH55" t="s">
         <v>5</v>
@@ -20820,11 +20652,8 @@
       <c r="DJ55" t="s">
         <v>5</v>
       </c>
-      <c r="DK55" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="56" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>157</v>
       </c>
@@ -21048,16 +20877,16 @@
         <v>5</v>
       </c>
       <c r="BW56" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BX56" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="BY56">
         <v>18</v>
       </c>
       <c r="BZ56" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="CA56">
         <v>4</v>
@@ -21144,19 +20973,19 @@
         <v>0</v>
       </c>
       <c r="DC56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD56" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE56" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF56" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG56" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH56" t="s">
         <v>5</v>
@@ -21167,11 +20996,8 @@
       <c r="DJ56" t="s">
         <v>5</v>
       </c>
-      <c r="DK56" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="57" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>159</v>
       </c>
@@ -21395,16 +21221,16 @@
         <v>5</v>
       </c>
       <c r="BW57" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BX57" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="BY57">
         <v>18</v>
       </c>
       <c r="BZ57" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA57">
         <v>3</v>
@@ -21491,19 +21317,19 @@
         <v>0</v>
       </c>
       <c r="DC57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG57" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH57" t="s">
         <v>5</v>
@@ -21514,11 +21340,8 @@
       <c r="DJ57" t="s">
         <v>5</v>
       </c>
-      <c r="DK57" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="58" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>160</v>
       </c>
@@ -21742,37 +21565,37 @@
         <v>5</v>
       </c>
       <c r="BW58" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="BX58" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="BY58">
         <v>9</v>
       </c>
       <c r="BZ58" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="CA58">
         <v>8</v>
       </c>
       <c r="CB58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="CC58">
         <v>6</v>
       </c>
       <c r="CD58" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="CE58">
         <v>9</v>
       </c>
       <c r="CF58" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CG58" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="CH58" t="s">
         <v>5</v>
@@ -21838,19 +21661,19 @@
         <v>0</v>
       </c>
       <c r="DC58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD58" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE58" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF58" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG58" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH58" t="s">
         <v>5</v>
@@ -21861,11 +21684,8 @@
       <c r="DJ58" t="s">
         <v>5</v>
       </c>
-      <c r="DK58" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="59" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>161</v>
       </c>
@@ -22089,28 +21909,28 @@
         <v>5</v>
       </c>
       <c r="BW59" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="BX59" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BY59">
         <v>1</v>
       </c>
       <c r="BZ59" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="CA59">
         <v>9</v>
       </c>
       <c r="CB59" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="CC59">
         <v>8</v>
       </c>
       <c r="CD59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="CE59">
         <v>2</v>
@@ -22185,19 +22005,19 @@
         <v>0</v>
       </c>
       <c r="DC59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG59" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH59" t="s">
         <v>5</v>
@@ -22208,11 +22028,8 @@
       <c r="DJ59" t="s">
         <v>5</v>
       </c>
-      <c r="DK59" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="60" spans="1:115" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>162</v>
       </c>
@@ -22436,40 +22253,40 @@
         <v>5</v>
       </c>
       <c r="BW60" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BX60" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="BY60">
         <v>3</v>
       </c>
       <c r="BZ60" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="CA60">
         <v>8</v>
       </c>
       <c r="CB60" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="CC60">
         <v>2</v>
       </c>
       <c r="CD60" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="CE60">
         <v>5</v>
       </c>
       <c r="CF60" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="CG60">
         <v>1</v>
       </c>
       <c r="CH60" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="CI60" t="s">
         <v>5</v>
@@ -22532,19 +22349,19 @@
         <v>0</v>
       </c>
       <c r="DC60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="DD60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DE60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DF60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="DG60" t="s">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="DH60" t="s">
         <v>5</v>
@@ -22553,9 +22370,6 @@
         <v>5</v>
       </c>
       <c r="DJ60" t="s">
-        <v>5</v>
-      </c>
-      <c r="DK60" t="s">
         <v>5</v>
       </c>
     </row>
